--- a/biology/Médecine/Louis_Martin_(médecin)/Louis_Martin_(médecin).xlsx
+++ b/biology/Médecine/Louis_Martin_(médecin)/Louis_Martin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Martin_(m%C3%A9decin)</t>
+          <t>Louis_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Martin (né le 20 septembre 1864 au Puy-en-Velay, Haute-Loire, et mort le 13 juin 1946 à Paris) est un médecin et bactériologiste français dont les travaux sur la diphtérie permettront de faire progresser la recherche sur cette maladie, qui, à la fin du XIXe siècle, est la plus grande cause de mortalité infantile en France (plusieurs dizaines de milliers de cas chaque année) et tue encore 3 000 enfants par an en 1924[pas clair][réf. nécessaire].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Martin_(m%C3%A9decin)</t>
+          <t>Louis_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père de Louis Martin est Antoine Martin, architecte renommé du Puy-en-Velay[1],  il est frère de Louis Germain-Martin, ministre des finances, et de Régis Martin Binachon, industriel à Pont-Salomon et sénateur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père de Louis Martin est Antoine Martin, architecte renommé du Puy-en-Velay,  il est frère de Louis Germain-Martin, ministre des finances, et de Régis Martin Binachon, industriel à Pont-Salomon et sénateur.
 En 1897, il soutient sa thèse de doctorat en médecine : Production de la toxine diphtérique.
 Louis Martin pratique avec Émile Roux les premières injections de sérum antidiphtérique.
-Louis Martin est à l'origine de l'hôpital Pasteur en 1900[2]. Grand hygiéniste, il est chef du service de sérothérapie antidiphtérique en 1894. Il est directeur de l'Institut Pasteur de 1933 à 1939. 
+Louis Martin est à l'origine de l'hôpital Pasteur en 1900. Grand hygiéniste, il est chef du service de sérothérapie antidiphtérique en 1894. Il est directeur de l'Institut Pasteur de 1933 à 1939. 
 Il est élu à l'Académie de médecine en 1919 et à l'Académie des sciences en 1937.
 En 1926, il a comme thésard, Pierre Mirault.
 Il est grand croix de la Légion d'honneur.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Martin_(m%C3%A9decin)</t>
+          <t>Louis_Martin_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Larousse encyclopédique en couleurs, France Loisirs 1978</t>
         </is>
